--- a/placement/placement.xlsx
+++ b/placement/placement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/westlybouchard/Documents/Projects/Rival/EncoderBoard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/westlybouchard/Documents/Projects/Rival/EncoderBoard/placement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3031DAE-71CA-A548-AE39-D65B7DFB2A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24B8208-7507-084F-AEC6-184BF8A50B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24500" yWindow="1840" windowWidth="10000" windowHeight="16940" xr2:uid="{F5CAB9E7-FFDA-A540-B913-565EF59DD613}"/>
+    <workbookView xWindow="4340" yWindow="1780" windowWidth="30220" windowHeight="19420" xr2:uid="{F5CAB9E7-FFDA-A540-B913-565EF59DD613}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Designator</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>U1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C25439-5D79-924E-AD8B-D07212BA3403}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,10 +485,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>156.55000000000001</v>
+        <v>156.75</v>
       </c>
       <c r="C2">
-        <v>-97.45</v>
+        <v>-97.35</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -493,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>149</v>
+        <v>153.44999999999999</v>
       </c>
       <c r="C3">
-        <v>-96.1</v>
+        <v>-95.95</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -587,7 +596,58 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>150.44999999999999</v>
+      </c>
+      <c r="C9">
+        <v>-95.65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="C10">
+        <v>-95.25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="C11">
+        <v>-100.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
